--- a/registro.xlsx
+++ b/registro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Generacion_QR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED903FE-599E-4006-B50C-4611F8532775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFD97A-32F2-4CB2-9697-F65FFFCCF8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC8CE2D0-7A6D-422B-94E9-3FE6C2B30B27}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{CC8CE2D0-7A6D-422B-94E9-3FE6C2B30B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>DNI</t>
   </si>
@@ -42,10 +42,178 @@
     <t>Nombre Completo</t>
   </si>
   <si>
-    <t>Marlon Martos Quiroz</t>
-  </si>
-  <si>
-    <t>Edis Yaneth Campos Sempertegui</t>
+    <t>Alarcón Alarcón Leyla Catherine</t>
+  </si>
+  <si>
+    <t>Alva Mendoza Denisse Milagros</t>
+  </si>
+  <si>
+    <t>Alvarado Ibañez Juan Carlos</t>
+  </si>
+  <si>
+    <t>Añaños Bedriñana Marco Antonio</t>
+  </si>
+  <si>
+    <t>Arce Saavedra Thony</t>
+  </si>
+  <si>
+    <t>Asenjo Alarcón José Ander</t>
+  </si>
+  <si>
+    <t>Avellaneda Yajahuanca Rosario del Socorro</t>
+  </si>
+  <si>
+    <t>Cárdenas Rosales Carmen Rosa</t>
+  </si>
+  <si>
+    <t>Cárdenas Tirado Zoila Isabel</t>
+  </si>
+  <si>
+    <t>Carranza Carranza Wilder Ovidio</t>
+  </si>
+  <si>
+    <t>Castro Vargas Daniel Jesus</t>
+  </si>
+  <si>
+    <t>Chávez Vásquez Elmer</t>
+  </si>
+  <si>
+    <t>Cieza Sanchez Edwar</t>
+  </si>
+  <si>
+    <t>Cruzado Bravo Melina Luz Mary</t>
+  </si>
+  <si>
+    <t>Cubas Irigoin Napoleon</t>
+  </si>
+  <si>
+    <t>Davila Tarrillo Edgar Alexander</t>
+  </si>
+  <si>
+    <t>Del Castillo Torres Ricardo Abel</t>
+  </si>
+  <si>
+    <t>Delgado Tapia Doris Elena</t>
+  </si>
+  <si>
+    <t>Garrido Juca José Felipe</t>
+  </si>
+  <si>
+    <t>Holmos Flores Erlinda</t>
+  </si>
+  <si>
+    <t>Huamán Tanta Martha Gladys</t>
+  </si>
+  <si>
+    <t>Idrogo Gálvez Milord</t>
+  </si>
+  <si>
+    <t>Jiménez de Aliaga Kelly Myriam</t>
+  </si>
+  <si>
+    <t>Mejía Huamán Jhonner</t>
+  </si>
+  <si>
+    <t>Mendivel Geronimo César Augusto</t>
+  </si>
+  <si>
+    <t>Nuñez Bustamante Ever</t>
+  </si>
+  <si>
+    <t>Orbegoso Navarro Luis Alberto</t>
+  </si>
+  <si>
+    <t>Saldaña Dávila Lita Elvira</t>
+  </si>
+  <si>
+    <t>Seminario Cunya Alejandro</t>
+  </si>
+  <si>
+    <t>Tejada Carrera Jorge Alejandro</t>
+  </si>
+  <si>
+    <t>Tenorio Carranza Jorge Romain</t>
+  </si>
+  <si>
+    <t>Terán Leiva Sara Judith</t>
+  </si>
+  <si>
+    <t>Villena Velásquez Jim Jairo</t>
+  </si>
+  <si>
+    <t>Yupanqui Linares Orlando Roberto</t>
+  </si>
+  <si>
+    <t>Abanto Merino Luis Alfredo</t>
+  </si>
+  <si>
+    <t>Acuña Diaz Delis Alexander</t>
+  </si>
+  <si>
+    <t>Barboza Estela Edwin</t>
+  </si>
+  <si>
+    <t>Barboza Mejia Abelardo Melanio</t>
+  </si>
+  <si>
+    <t>Barboza Tarrillo Luis Alexander</t>
+  </si>
+  <si>
+    <t>Bustamante López Luz Guisela</t>
+  </si>
+  <si>
+    <t>Delgado Requejo Yonel</t>
+  </si>
+  <si>
+    <t>Diaz Coronel Maria Itila</t>
+  </si>
+  <si>
+    <t>Diaz Estrada Jimmy Alberto</t>
+  </si>
+  <si>
+    <t>Díaz Rodríguez Abner</t>
+  </si>
+  <si>
+    <t>Fernandez Gastelo Artemio</t>
+  </si>
+  <si>
+    <t>Fernández Miranda Tattiana Katerine</t>
+  </si>
+  <si>
+    <t>Huaman Quiña Salomon</t>
+  </si>
+  <si>
+    <t>Idrogo Vásquez Fanny Del Rocío</t>
+  </si>
+  <si>
+    <t>Mundaca Constantino Nely Esperanza</t>
+  </si>
+  <si>
+    <t>Núñez Bustamante Nelve</t>
+  </si>
+  <si>
+    <t>Quiroz Gonzales Jose Magno</t>
+  </si>
+  <si>
+    <t>Ramirez Erazo Bryam David</t>
+  </si>
+  <si>
+    <t>Ramos Tarrillo Elisa</t>
+  </si>
+  <si>
+    <t>Ramos Tarrillo Maria Edelmira</t>
+  </si>
+  <si>
+    <t>Rioja Su Edgar Felipe</t>
+  </si>
+  <si>
+    <t>Rivera Herrera Dayana Luisa</t>
+  </si>
+  <si>
+    <t>Tapia Cabrera Carlos</t>
+  </si>
+  <si>
+    <t>Zavaleta Delgado Jose Estalin</t>
   </si>
 </sst>
 </file>
@@ -89,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -97,6 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896296E3-B7BF-4B9F-B4AC-CCA0439C1CF6}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,20 +600,300 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>12345678</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>87654321</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/registro.xlsx
+++ b/registro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Generacion_QR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCFD97A-32F2-4CB2-9697-F65FFFCCF8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A7D907-FE60-4049-8F4E-258C542E43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{CC8CE2D0-7A6D-422B-94E9-3FE6C2B30B27}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{CC8CE2D0-7A6D-422B-94E9-3FE6C2B30B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>DNI</t>
   </si>
@@ -42,178 +42,199 @@
     <t>Nombre Completo</t>
   </si>
   <si>
-    <t>Alarcón Alarcón Leyla Catherine</t>
-  </si>
-  <si>
-    <t>Alva Mendoza Denisse Milagros</t>
-  </si>
-  <si>
-    <t>Alvarado Ibañez Juan Carlos</t>
-  </si>
-  <si>
-    <t>Añaños Bedriñana Marco Antonio</t>
-  </si>
-  <si>
-    <t>Arce Saavedra Thony</t>
-  </si>
-  <si>
-    <t>Asenjo Alarcón José Ander</t>
-  </si>
-  <si>
-    <t>Avellaneda Yajahuanca Rosario del Socorro</t>
-  </si>
-  <si>
-    <t>Cárdenas Rosales Carmen Rosa</t>
-  </si>
-  <si>
-    <t>Cárdenas Tirado Zoila Isabel</t>
-  </si>
-  <si>
-    <t>Carranza Carranza Wilder Ovidio</t>
-  </si>
-  <si>
-    <t>Castro Vargas Daniel Jesus</t>
-  </si>
-  <si>
-    <t>Chávez Vásquez Elmer</t>
-  </si>
-  <si>
-    <t>Cieza Sanchez Edwar</t>
-  </si>
-  <si>
-    <t>Cruzado Bravo Melina Luz Mary</t>
-  </si>
-  <si>
-    <t>Cubas Irigoin Napoleon</t>
-  </si>
-  <si>
-    <t>Davila Tarrillo Edgar Alexander</t>
-  </si>
-  <si>
-    <t>Del Castillo Torres Ricardo Abel</t>
-  </si>
-  <si>
-    <t>Delgado Tapia Doris Elena</t>
-  </si>
-  <si>
-    <t>Garrido Juca José Felipe</t>
-  </si>
-  <si>
-    <t>Holmos Flores Erlinda</t>
-  </si>
-  <si>
-    <t>Huamán Tanta Martha Gladys</t>
-  </si>
-  <si>
-    <t>Idrogo Gálvez Milord</t>
-  </si>
-  <si>
-    <t>Jiménez de Aliaga Kelly Myriam</t>
-  </si>
-  <si>
-    <t>Mejía Huamán Jhonner</t>
-  </si>
-  <si>
-    <t>Mendivel Geronimo César Augusto</t>
-  </si>
-  <si>
-    <t>Nuñez Bustamante Ever</t>
-  </si>
-  <si>
-    <t>Orbegoso Navarro Luis Alberto</t>
-  </si>
-  <si>
-    <t>Saldaña Dávila Lita Elvira</t>
-  </si>
-  <si>
-    <t>Seminario Cunya Alejandro</t>
-  </si>
-  <si>
-    <t>Tejada Carrera Jorge Alejandro</t>
-  </si>
-  <si>
-    <t>Tenorio Carranza Jorge Romain</t>
-  </si>
-  <si>
-    <t>Terán Leiva Sara Judith</t>
-  </si>
-  <si>
-    <t>Villena Velásquez Jim Jairo</t>
-  </si>
-  <si>
-    <t>Yupanqui Linares Orlando Roberto</t>
-  </si>
-  <si>
-    <t>Abanto Merino Luis Alfredo</t>
-  </si>
-  <si>
-    <t>Acuña Diaz Delis Alexander</t>
-  </si>
-  <si>
-    <t>Barboza Estela Edwin</t>
-  </si>
-  <si>
-    <t>Barboza Mejia Abelardo Melanio</t>
-  </si>
-  <si>
-    <t>Barboza Tarrillo Luis Alexander</t>
-  </si>
-  <si>
-    <t>Bustamante López Luz Guisela</t>
-  </si>
-  <si>
-    <t>Delgado Requejo Yonel</t>
-  </si>
-  <si>
-    <t>Diaz Coronel Maria Itila</t>
-  </si>
-  <si>
-    <t>Diaz Estrada Jimmy Alberto</t>
-  </si>
-  <si>
-    <t>Díaz Rodríguez Abner</t>
-  </si>
-  <si>
-    <t>Fernandez Gastelo Artemio</t>
-  </si>
-  <si>
-    <t>Fernández Miranda Tattiana Katerine</t>
-  </si>
-  <si>
-    <t>Huaman Quiña Salomon</t>
-  </si>
-  <si>
-    <t>Idrogo Vásquez Fanny Del Rocío</t>
-  </si>
-  <si>
-    <t>Mundaca Constantino Nely Esperanza</t>
-  </si>
-  <si>
-    <t>Núñez Bustamante Nelve</t>
-  </si>
-  <si>
-    <t>Quiroz Gonzales Jose Magno</t>
-  </si>
-  <si>
-    <t>Ramirez Erazo Bryam David</t>
-  </si>
-  <si>
-    <t>Ramos Tarrillo Elisa</t>
-  </si>
-  <si>
-    <t>Ramos Tarrillo Maria Edelmira</t>
-  </si>
-  <si>
-    <t>Rioja Su Edgar Felipe</t>
-  </si>
-  <si>
-    <t>Rivera Herrera Dayana Luisa</t>
-  </si>
-  <si>
-    <t>Tapia Cabrera Carlos</t>
-  </si>
-  <si>
-    <t>Zavaleta Delgado Jose Estalin</t>
+    <t>Leyla Catherine Alarcón Alarcón</t>
+  </si>
+  <si>
+    <t>Denisse Milagros Alva Mendoza</t>
+  </si>
+  <si>
+    <t>Juan Carlos Alvarado Ibañez</t>
+  </si>
+  <si>
+    <t>Marco Antonio Añaños Bedriñana</t>
+  </si>
+  <si>
+    <t>Thony  Arce Saavedra</t>
+  </si>
+  <si>
+    <t>José Ander Asenjo Alarcón</t>
+  </si>
+  <si>
+    <t>Rosario del Socorro Avellaneda Yajahuanca</t>
+  </si>
+  <si>
+    <t>Carmen Rosa Cárdenas Rosales</t>
+  </si>
+  <si>
+    <t>Zoila Isabel Cárdenas Tirado</t>
+  </si>
+  <si>
+    <t>Wilder Ovidio Carranza Carranza</t>
+  </si>
+  <si>
+    <t>Daniel Jesus Castro Vargas</t>
+  </si>
+  <si>
+    <t>Elmer  Chávez Vásquez</t>
+  </si>
+  <si>
+    <t>Edwar  Cieza Sanchez</t>
+  </si>
+  <si>
+    <t>Melina Luz Mary Cruzado Bravo</t>
+  </si>
+  <si>
+    <t>Napoleon  Cubas Irigoin</t>
+  </si>
+  <si>
+    <t>Edgar Alexander Davila Tarrillo</t>
+  </si>
+  <si>
+    <t>Torres Ricardo Abel Del Castillo</t>
+  </si>
+  <si>
+    <t>Doris Elena Delgado Tapia</t>
+  </si>
+  <si>
+    <t>José Felipe Garrido Juca</t>
+  </si>
+  <si>
+    <t>Erlinda  Holmos Flores</t>
+  </si>
+  <si>
+    <t>Martha Gladys Huamán Tanta</t>
+  </si>
+  <si>
+    <t>Milord  Idrogo Gálvez</t>
+  </si>
+  <si>
+    <t>Aliaga Kelly Myriam Jiménez de</t>
+  </si>
+  <si>
+    <t>Jhonner  Mejía Huamán</t>
+  </si>
+  <si>
+    <t>César Augusto Mendivel Geronimo</t>
+  </si>
+  <si>
+    <t>Ever  Nuñez Bustamante</t>
+  </si>
+  <si>
+    <t>Luis Alberto Orbegoso Navarro</t>
+  </si>
+  <si>
+    <t>Lita Elvira Saldaña Dávila</t>
+  </si>
+  <si>
+    <t>Alejandro  Seminario Cunya</t>
+  </si>
+  <si>
+    <t>Jorge Alejandro Tejada Carrera</t>
+  </si>
+  <si>
+    <t>Jorge Romain Tenorio Carranza</t>
+  </si>
+  <si>
+    <t>Sara Judith Terán Leiva</t>
+  </si>
+  <si>
+    <t>Jim Jairo Villena Velásquez</t>
+  </si>
+  <si>
+    <t>Orlando Roberto Yupanqui Linares</t>
+  </si>
+  <si>
+    <t>Luis Alfredo Abanto Merino</t>
+  </si>
+  <si>
+    <t>Delis Alexander Acuña Diaz</t>
+  </si>
+  <si>
+    <t>Edwin  Barboza Estela</t>
+  </si>
+  <si>
+    <t>Abelardo Melanio Barboza Mejia</t>
+  </si>
+  <si>
+    <t>Luis Alexander Barboza Tarrillo</t>
+  </si>
+  <si>
+    <t>Luz Guisela Bustamante López</t>
+  </si>
+  <si>
+    <t>Yonel  Delgado Requejo</t>
+  </si>
+  <si>
+    <t>Maria Itila Diaz Coronel</t>
+  </si>
+  <si>
+    <t>Jimmy Alberto Diaz Estrada</t>
+  </si>
+  <si>
+    <t>Abner  Díaz Rodríguez</t>
+  </si>
+  <si>
+    <t>Artemio  Fernandez Gastelo</t>
+  </si>
+  <si>
+    <t>Tattiana Katerine Fernández Miranda</t>
+  </si>
+  <si>
+    <t>Salomon  Huaman Quiña</t>
+  </si>
+  <si>
+    <t>Fanny Del Rocío Idrogo Vásquez</t>
+  </si>
+  <si>
+    <t>Nely Esperanza Mundaca Constantino</t>
+  </si>
+  <si>
+    <t>Nelve  Núñez Bustamante</t>
+  </si>
+  <si>
+    <t>Jose Magno Quiroz Gonzales</t>
+  </si>
+  <si>
+    <t>Bryam David Ramirez Erazo</t>
+  </si>
+  <si>
+    <t>Elisa  Ramos Tarrillo</t>
+  </si>
+  <si>
+    <t>Maria Edelmira Ramos Tarrillo</t>
+  </si>
+  <si>
+    <t>Edgar Felipe Rioja Su</t>
+  </si>
+  <si>
+    <t>Dayana Luisa Rivera Herrera</t>
+  </si>
+  <si>
+    <t>Carlos  Tapia Cabrera</t>
+  </si>
+  <si>
+    <t>Jose Estalin Zavaleta Delgado</t>
+  </si>
+  <si>
+    <t>Nerly  Apaestegui Bustamante,</t>
+  </si>
+  <si>
+    <t>Cynthia Fiorella Carrillo Diaz</t>
+  </si>
+  <si>
+    <t>Linda Teresa Estrella Collantes</t>
+  </si>
+  <si>
+    <t>Kathia Lorena Guerrero Zavala</t>
+  </si>
+  <si>
+    <t>Cristian Manuel Guevara Perales</t>
+  </si>
+  <si>
+    <t>Margarita María Perales Coronel</t>
+  </si>
+  <si>
+    <t>Sandra Jaqueline Ramírez Medina</t>
   </si>
 </sst>
 </file>
@@ -580,19 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896296E3-B7BF-4B9F-B4AC-CCA0439C1CF6}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,9 +630,6 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>87654321</v>
-      </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,123 +795,158 @@
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
